--- a/Feds y Confeds. sector público.xlsx
+++ b/Feds y Confeds. sector público.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sebao\Documents\GitHub\Federaciones-y-Confederaciones-sindicales--1930-2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B889E12-DBD5-4778-839B-42244B54C2A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50089C67-BE37-4430-849B-9D4E8345182D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Leeme" sheetId="7" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="31">
   <si>
     <t>Año</t>
   </si>
@@ -271,12 +271,77 @@
       <t xml:space="preserve">. </t>
     </r>
   </si>
+  <si>
+    <t>Federaciones sindicales creadas, en receso y vigentes, 1932-2021</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Osorio, Sebastián (2021): "Federaciones sindicales creadas, en receso y vigentes, 1932-2021". En </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Repositorio de Estadísticas Sindicales, 1900-2020</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. CIPSTRA, GETSUR y VV.AA. Disponible en: https://repositoriosindical.netlify.app/ </t>
+    </r>
+  </si>
+  <si>
+    <t>Confederaciones sindicales creadas, en receso y vigentes, 1932-2021</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Osorio, Sebastián (2021): "Confederaciones sindicales creadas, en receso y vigentes, 1932-2021". En </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Repositorio de Estadísticas Sindicales, 1900-2020</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. CIPSTRA, GETSUR y VV.AA. Disponible en: https://repositoriosindical.netlify.app/ </t>
+    </r>
+  </si>
+  <si>
+    <t>Federaciones y confederaciones sindicales creadas y vigentes, 1932-2021</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -308,6 +373,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -329,7 +403,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -350,6 +424,13 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -395,7 +476,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Totales sector público'!$B$1</c:f>
+              <c:f>'Totales sector público'!$B$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -416,7 +497,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'Totales sector público'!$A$58:$A$90</c:f>
+              <c:f>'Totales sector público'!$A$59:$A$91</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="33"/>
@@ -524,7 +605,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Totales sector público'!$B$58:$B$90</c:f>
+              <c:f>'Totales sector público'!$B$59:$B$91</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="33"/>
@@ -641,7 +722,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Totales sector público'!$C$1</c:f>
+              <c:f>'Totales sector público'!$C$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -662,7 +743,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'Totales sector público'!$A$58:$A$90</c:f>
+              <c:f>'Totales sector público'!$A$59:$A$91</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="33"/>
@@ -770,7 +851,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Totales sector público'!$C$58:$C$90</c:f>
+              <c:f>'Totales sector público'!$C$59:$C$91</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="33"/>
@@ -902,7 +983,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Totales sector público'!$E$1</c:f>
+              <c:f>'Totales sector público'!$E$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -925,7 +1006,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Totales sector público'!$E$58:$E$90</c:f>
+              <c:f>'Totales sector público'!$E$59:$E$91</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="33"/>
@@ -1059,7 +1140,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Totales sector público'!$D$1</c:f>
+              <c:f>'Totales sector público'!$D$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1082,7 +1163,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Totales sector público'!$D$58:$D$90</c:f>
+              <c:f>'Totales sector público'!$D$59:$D$91</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="33"/>
@@ -2129,13 +2210,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>179070</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>784860</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>175260</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2429,8 +2510,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43AA9F49-4F7B-4F03-81DF-1F0B4E8681F6}">
   <dimension ref="A1:A20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2520,10 +2601,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B3829B2-F4FA-4274-BF32-C3B56D0ECAD0}">
-  <dimension ref="A1:F91"/>
+  <dimension ref="A1:G92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2532,309 +2613,302 @@
     <col min="2" max="6" width="18.5546875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A2" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C2" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D2" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E2" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F2" s="10" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
         <v>1932</v>
       </c>
-      <c r="B2" s="2">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2">
-        <v>0</v>
-      </c>
-      <c r="D2" s="2">
-        <v>0</v>
-      </c>
-      <c r="E2" s="2">
-        <v>0</v>
-      </c>
-      <c r="F2" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
+      <c r="B3" s="2">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
         <v>1933</v>
       </c>
-      <c r="B3" s="2">
-        <v>0</v>
-      </c>
-      <c r="C3" s="2">
-        <v>0</v>
-      </c>
-      <c r="D3" s="2">
-        <v>0</v>
-      </c>
-      <c r="E3" s="2">
-        <v>0</v>
-      </c>
-      <c r="F3" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
+      <c r="B4" s="2">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
         <v>1934</v>
       </c>
-      <c r="B4" s="2">
-        <v>0</v>
-      </c>
-      <c r="C4" s="2">
-        <v>0</v>
-      </c>
-      <c r="D4" s="2">
-        <v>0</v>
-      </c>
-      <c r="E4" s="2">
-        <v>0</v>
-      </c>
-      <c r="F4" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
+      <c r="B5" s="2">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
         <v>1935</v>
       </c>
-      <c r="B5" s="2">
-        <v>0</v>
-      </c>
-      <c r="C5" s="2">
-        <v>0</v>
-      </c>
-      <c r="D5" s="2">
-        <v>0</v>
-      </c>
-      <c r="E5" s="2">
-        <v>0</v>
-      </c>
-      <c r="F5" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
+      <c r="B6" s="2">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
         <v>1936</v>
       </c>
-      <c r="B6" s="2">
-        <v>0</v>
-      </c>
-      <c r="C6" s="2">
-        <v>0</v>
-      </c>
-      <c r="D6" s="2">
-        <v>0</v>
-      </c>
-      <c r="E6" s="2">
-        <v>0</v>
-      </c>
-      <c r="F6" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
+      <c r="B7" s="2">
+        <v>0</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
         <v>1937</v>
       </c>
-      <c r="B7" s="2">
-        <v>0</v>
-      </c>
-      <c r="C7" s="2">
-        <v>0</v>
-      </c>
-      <c r="D7" s="2">
-        <v>0</v>
-      </c>
-      <c r="E7" s="2">
-        <v>0</v>
-      </c>
-      <c r="F7" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
+      <c r="B8" s="2">
+        <v>0</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
         <v>1938</v>
       </c>
-      <c r="B8" s="2">
-        <v>0</v>
-      </c>
-      <c r="C8" s="2">
-        <v>0</v>
-      </c>
-      <c r="D8" s="2">
-        <v>0</v>
-      </c>
-      <c r="E8" s="2">
-        <v>0</v>
-      </c>
-      <c r="F8" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
+      <c r="B9" s="2">
+        <v>0</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
         <v>1939</v>
       </c>
-      <c r="B9" s="2">
-        <v>0</v>
-      </c>
-      <c r="C9" s="2">
-        <v>0</v>
-      </c>
-      <c r="D9" s="2">
-        <v>0</v>
-      </c>
-      <c r="E9" s="2">
-        <v>0</v>
-      </c>
-      <c r="F9" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
+      <c r="B10" s="2">
+        <v>0</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
         <v>1940</v>
       </c>
-      <c r="B10" s="2">
-        <v>0</v>
-      </c>
-      <c r="C10" s="2">
-        <v>0</v>
-      </c>
-      <c r="D10" s="2">
-        <v>0</v>
-      </c>
-      <c r="E10" s="2">
-        <v>0</v>
-      </c>
-      <c r="F10" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
+      <c r="B11" s="2">
+        <v>0</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
         <v>1941</v>
       </c>
-      <c r="B11" s="2">
-        <v>0</v>
-      </c>
-      <c r="C11" s="2">
-        <v>0</v>
-      </c>
-      <c r="D11" s="2">
-        <v>0</v>
-      </c>
-      <c r="E11" s="2">
-        <v>0</v>
-      </c>
-      <c r="F11" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="2">
+      <c r="B12" s="2">
+        <v>0</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
         <v>1942</v>
       </c>
-      <c r="B12" s="2">
-        <v>0</v>
-      </c>
-      <c r="C12" s="2">
-        <v>0</v>
-      </c>
-      <c r="D12" s="2">
-        <v>0</v>
-      </c>
-      <c r="E12" s="2">
-        <v>0</v>
-      </c>
-      <c r="F12" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="2">
+      <c r="B13" s="2">
+        <v>0</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0</v>
+      </c>
+      <c r="F13" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
         <v>1943</v>
       </c>
-      <c r="B13" s="2">
-        <v>0</v>
-      </c>
-      <c r="C13" s="2">
-        <v>0</v>
-      </c>
-      <c r="D13" s="2">
-        <v>0</v>
-      </c>
-      <c r="E13" s="2">
-        <v>0</v>
-      </c>
-      <c r="F13" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="2">
+      <c r="B14" s="2">
+        <v>0</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0</v>
+      </c>
+      <c r="F14" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
         <v>1944</v>
       </c>
-      <c r="B14" s="2">
-        <v>0</v>
-      </c>
-      <c r="C14" s="2">
-        <v>0</v>
-      </c>
-      <c r="D14" s="2">
-        <v>0</v>
-      </c>
-      <c r="E14" s="2">
-        <v>0</v>
-      </c>
-      <c r="F14" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="2">
+      <c r="B15" s="2">
+        <v>0</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0</v>
+      </c>
+      <c r="E15" s="2">
+        <v>0</v>
+      </c>
+      <c r="F15" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
         <v>1945</v>
-      </c>
-      <c r="B15" s="2">
-        <v>0</v>
-      </c>
-      <c r="C15" s="2">
-        <v>0</v>
-      </c>
-      <c r="D15" s="2">
-        <v>0</v>
-      </c>
-      <c r="E15" s="2">
-        <v>0</v>
-      </c>
-      <c r="F15" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="2">
-        <v>1946</v>
       </c>
       <c r="B16" s="2">
         <v>0</v>
@@ -2854,7 +2928,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="B17" s="2">
         <v>0</v>
@@ -2874,7 +2948,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
-        <v>1948</v>
+        <v>1947</v>
       </c>
       <c r="B18" s="2">
         <v>0</v>
@@ -2894,7 +2968,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
-        <v>1949</v>
+        <v>1948</v>
       </c>
       <c r="B19" s="2">
         <v>0</v>
@@ -2914,7 +2988,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
-        <v>1950</v>
+        <v>1949</v>
       </c>
       <c r="B20" s="2">
         <v>0</v>
@@ -2934,7 +3008,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
-        <v>1951</v>
+        <v>1950</v>
       </c>
       <c r="B21" s="2">
         <v>0</v>
@@ -2954,7 +3028,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
-        <v>1952</v>
+        <v>1951</v>
       </c>
       <c r="B22" s="2">
         <v>0</v>
@@ -2974,7 +3048,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
-        <v>1953</v>
+        <v>1952</v>
       </c>
       <c r="B23" s="2">
         <v>0</v>
@@ -2994,7 +3068,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
-        <v>1954</v>
+        <v>1953</v>
       </c>
       <c r="B24" s="2">
         <v>0</v>
@@ -3014,7 +3088,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
-        <v>1955</v>
+        <v>1954</v>
       </c>
       <c r="B25" s="2">
         <v>0</v>
@@ -3034,7 +3108,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
-        <v>1956</v>
+        <v>1955</v>
       </c>
       <c r="B26" s="2">
         <v>0</v>
@@ -3054,7 +3128,7 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
-        <v>1957</v>
+        <v>1956</v>
       </c>
       <c r="B27" s="2">
         <v>0</v>
@@ -3074,7 +3148,7 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
-        <v>1958</v>
+        <v>1957</v>
       </c>
       <c r="B28" s="2">
         <v>0</v>
@@ -3094,7 +3168,7 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
-        <v>1959</v>
+        <v>1958</v>
       </c>
       <c r="B29" s="2">
         <v>0</v>
@@ -3114,7 +3188,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
-        <v>1960</v>
+        <v>1959</v>
       </c>
       <c r="B30" s="2">
         <v>0</v>
@@ -3134,7 +3208,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
-        <v>1961</v>
+        <v>1960</v>
       </c>
       <c r="B31" s="2">
         <v>0</v>
@@ -3154,7 +3228,7 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
-        <v>1962</v>
+        <v>1961</v>
       </c>
       <c r="B32" s="2">
         <v>0</v>
@@ -3174,7 +3248,7 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
-        <v>1963</v>
+        <v>1962</v>
       </c>
       <c r="B33" s="2">
         <v>0</v>
@@ -3194,7 +3268,7 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
-        <v>1964</v>
+        <v>1963</v>
       </c>
       <c r="B34" s="2">
         <v>0</v>
@@ -3214,7 +3288,7 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
-        <v>1965</v>
+        <v>1964</v>
       </c>
       <c r="B35" s="2">
         <v>0</v>
@@ -3234,7 +3308,7 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
-        <v>1966</v>
+        <v>1965</v>
       </c>
       <c r="B36" s="2">
         <v>0</v>
@@ -3254,7 +3328,7 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
-        <v>1967</v>
+        <v>1966</v>
       </c>
       <c r="B37" s="2">
         <v>0</v>
@@ -3274,7 +3348,7 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
-        <v>1968</v>
+        <v>1967</v>
       </c>
       <c r="B38" s="2">
         <v>0</v>
@@ -3294,7 +3368,7 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
-        <v>1969</v>
+        <v>1968</v>
       </c>
       <c r="B39" s="2">
         <v>0</v>
@@ -3314,7 +3388,7 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
-        <v>1970</v>
+        <v>1969</v>
       </c>
       <c r="B40" s="2">
         <v>0</v>
@@ -3334,7 +3408,7 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
-        <v>1971</v>
+        <v>1970</v>
       </c>
       <c r="B41" s="2">
         <v>0</v>
@@ -3354,7 +3428,7 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
-        <v>1972</v>
+        <v>1971</v>
       </c>
       <c r="B42" s="2">
         <v>0</v>
@@ -3374,7 +3448,7 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
-        <v>1973</v>
+        <v>1972</v>
       </c>
       <c r="B43" s="2">
         <v>0</v>
@@ -3394,7 +3468,7 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
-        <v>1974</v>
+        <v>1973</v>
       </c>
       <c r="B44" s="2">
         <v>0</v>
@@ -3414,7 +3488,7 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
-        <v>1975</v>
+        <v>1974</v>
       </c>
       <c r="B45" s="2">
         <v>0</v>
@@ -3434,7 +3508,7 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="B46" s="2">
         <v>0</v>
@@ -3454,7 +3528,7 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
-        <v>1977</v>
+        <v>1976</v>
       </c>
       <c r="B47" s="2">
         <v>0</v>
@@ -3474,7 +3548,7 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
-        <v>1978</v>
+        <v>1977</v>
       </c>
       <c r="B48" s="2">
         <v>0</v>
@@ -3494,7 +3568,7 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
-        <v>1979</v>
+        <v>1978</v>
       </c>
       <c r="B49" s="2">
         <v>0</v>
@@ -3514,7 +3588,7 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="B50" s="2">
         <v>0</v>
@@ -3534,7 +3608,7 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="B51" s="2">
         <v>0</v>
@@ -3554,7 +3628,7 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
-        <v>1982</v>
+        <v>1981</v>
       </c>
       <c r="B52" s="2">
         <v>0</v>
@@ -3574,7 +3648,7 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
-        <v>1983</v>
+        <v>1982</v>
       </c>
       <c r="B53" s="2">
         <v>0</v>
@@ -3594,7 +3668,7 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
-        <v>1984</v>
+        <v>1983</v>
       </c>
       <c r="B54" s="2">
         <v>0</v>
@@ -3614,7 +3688,7 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="B55" s="2">
         <v>0</v>
@@ -3634,7 +3708,7 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="B56" s="2">
         <v>0</v>
@@ -3654,7 +3728,7 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
-        <v>1987</v>
+        <v>1986</v>
       </c>
       <c r="B57" s="2">
         <v>0</v>
@@ -3674,7 +3748,7 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
-        <v>1988</v>
+        <v>1987</v>
       </c>
       <c r="B58" s="2">
         <v>0</v>
@@ -3694,53 +3768,53 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
+        <v>1988</v>
+      </c>
+      <c r="B59" s="2">
+        <v>0</v>
+      </c>
+      <c r="C59" s="2">
+        <v>0</v>
+      </c>
+      <c r="D59" s="2">
+        <v>0</v>
+      </c>
+      <c r="E59" s="2">
+        <v>0</v>
+      </c>
+      <c r="F59" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A60" s="2">
         <v>1989</v>
       </c>
-      <c r="B59" s="2">
-        <v>0</v>
-      </c>
-      <c r="C59" s="2">
-        <v>0</v>
-      </c>
-      <c r="D59" s="2">
-        <v>0</v>
-      </c>
-      <c r="E59" s="2">
-        <v>0</v>
-      </c>
-      <c r="F59" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A60" s="1">
-        <v>1990</v>
-      </c>
-      <c r="B60" s="1">
-        <v>1</v>
-      </c>
-      <c r="C60" s="1">
-        <v>1</v>
-      </c>
-      <c r="D60" s="1">
-        <v>0</v>
-      </c>
-      <c r="E60" s="1">
-        <v>0</v>
-      </c>
-      <c r="F60" s="1">
-        <v>1</v>
+      <c r="B60" s="2">
+        <v>0</v>
+      </c>
+      <c r="C60" s="2">
+        <v>0</v>
+      </c>
+      <c r="D60" s="2">
+        <v>0</v>
+      </c>
+      <c r="E60" s="2">
+        <v>0</v>
+      </c>
+      <c r="F60" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="B61" s="1">
         <v>1</v>
       </c>
       <c r="C61" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D61" s="1">
         <v>0</v>
@@ -3749,15 +3823,15 @@
         <v>0</v>
       </c>
       <c r="F61" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="B62" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C62" s="1">
         <v>2</v>
@@ -3774,7 +3848,7 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="B63" s="1">
         <v>0</v>
@@ -3794,7 +3868,7 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="B64" s="1">
         <v>0</v>
@@ -3814,13 +3888,13 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="B65" s="1">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="C65" s="1">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D65" s="1">
         <v>0</v>
@@ -3829,18 +3903,18 @@
         <v>0</v>
       </c>
       <c r="F65" s="1">
-        <v>16</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="B66" s="1">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C66" s="1">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="D66" s="1">
         <v>0</v>
@@ -3849,18 +3923,18 @@
         <v>0</v>
       </c>
       <c r="F66" s="1">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="B67" s="1">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C67" s="1">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="D67" s="1">
         <v>0</v>
@@ -3869,18 +3943,18 @@
         <v>0</v>
       </c>
       <c r="F67" s="1">
-        <v>48</v>
+        <v>33</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="B68" s="1">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C68" s="1">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="D68" s="1">
         <v>0</v>
@@ -3889,118 +3963,118 @@
         <v>0</v>
       </c>
       <c r="F68" s="1">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="B69" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" s="1">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="D69" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E69" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F69" s="1">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="B70" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C70" s="1">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="D70" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E70" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F70" s="1">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="B71" s="1">
+        <v>8</v>
+      </c>
+      <c r="C71" s="1">
+        <v>71</v>
+      </c>
+      <c r="D71" s="1">
+        <v>2</v>
+      </c>
+      <c r="E71" s="1">
         <v>5</v>
       </c>
-      <c r="C71" s="1">
-        <v>76</v>
-      </c>
-      <c r="D71" s="1">
-        <v>1</v>
-      </c>
-      <c r="E71" s="1">
-        <v>6</v>
-      </c>
       <c r="F71" s="1">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="B72" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C72" s="1">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D72" s="1">
         <v>1</v>
       </c>
       <c r="E72" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F72" s="1">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="B73" s="1">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C73" s="1">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="D73" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E73" s="1">
         <v>7</v>
       </c>
       <c r="F73" s="1">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="B74" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C74" s="1">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="D74" s="1">
         <v>0</v>
@@ -4009,124 +4083,124 @@
         <v>7</v>
       </c>
       <c r="F74" s="1">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="B75" s="1">
+        <v>6</v>
+      </c>
+      <c r="C75" s="1">
+        <v>93</v>
+      </c>
+      <c r="D75" s="1">
+        <v>0</v>
+      </c>
+      <c r="E75" s="1">
         <v>7</v>
       </c>
-      <c r="C75" s="1">
-        <v>100</v>
-      </c>
-      <c r="D75" s="1">
-        <v>1</v>
-      </c>
-      <c r="E75" s="1">
-        <v>8</v>
-      </c>
       <c r="F75" s="1">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="B76" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C76" s="1">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D76" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E76" s="1">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F76" s="1">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="B77" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C77" s="1">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D77" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E77" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F77" s="1">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="B78" s="1">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C78" s="1">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="D78" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E78" s="1">
         <v>12</v>
       </c>
       <c r="F78" s="1">
-        <v>106</v>
+        <v>97</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="B79" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C79" s="1">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="D79" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E79" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F79" s="1">
-        <v>115</v>
+        <v>106</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="B80" s="1">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C80" s="1">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D80" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E80" s="1">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F80" s="1">
         <v>115</v>
@@ -4134,227 +4208,251 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="B81" s="1">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C81" s="1">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="D81" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E81" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F81" s="1">
-        <v>123</v>
+        <v>115</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="B82" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C82" s="1">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="D82" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E82" s="1">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F82" s="1">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="B83" s="1">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C83" s="1">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="D83" s="1">
         <v>2</v>
       </c>
       <c r="E83" s="1">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F83" s="1">
-        <v>138</v>
+        <v>128</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B84" s="1">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C84" s="1">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="D84" s="1">
         <v>2</v>
       </c>
       <c r="E84" s="1">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F84" s="1">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="B85" s="1">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C85" s="1">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c r="D85" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E85" s="1">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F85" s="1">
-        <v>154</v>
+        <v>143</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="B86" s="1">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C86" s="1">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="D86" s="1">
         <v>3</v>
       </c>
       <c r="E86" s="1">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F86" s="1">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="B87" s="1">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C87" s="1">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="D87" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E87" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F87" s="1">
-        <v>165</v>
+        <v>157</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="B88" s="1">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C88" s="1">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="D88" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E88" s="1">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F88" s="1">
-        <v>178</v>
+        <v>165</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="B89" s="1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C89" s="1">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="D89" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E89" s="1">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F89" s="1">
-        <v>184</v>
+        <v>178</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="B90" s="1">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C90" s="1">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D90" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E90" s="1">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F90" s="1">
         <v>184</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A91" s="1" t="s">
-        <v>1</v>
+      <c r="A91" s="1">
+        <v>2020</v>
       </c>
       <c r="B91" s="1">
+        <v>3</v>
+      </c>
+      <c r="C91" s="1">
+        <v>223</v>
+      </c>
+      <c r="D91" s="1">
+        <v>3</v>
+      </c>
+      <c r="E91" s="1">
+        <v>39</v>
+      </c>
+      <c r="F91" s="1">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A92" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B92" s="1">
         <v>224</v>
       </c>
-      <c r="C91" s="1"/>
-      <c r="D91" s="1"/>
-      <c r="E91" s="1"/>
-      <c r="F91" s="1"/>
+      <c r="C92" s="1"/>
+      <c r="D92" s="1"/>
+      <c r="E92" s="1"/>
+      <c r="F92" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDCC3C7D-90AD-4C20-A21D-B8D06CC2B997}">
-  <dimension ref="A1:F91"/>
+  <dimension ref="A1:G92"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:F1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4363,309 +4461,302 @@
     <col min="2" max="6" width="18.5546875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A2" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C2" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D2" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E2" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F2" s="10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
         <v>1932</v>
       </c>
-      <c r="B2" s="2">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2">
-        <v>0</v>
-      </c>
-      <c r="D2" s="2">
-        <v>0</v>
-      </c>
-      <c r="E2" s="2">
-        <v>0</v>
-      </c>
-      <c r="F2" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
+      <c r="B3" s="2">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
         <v>1933</v>
       </c>
-      <c r="B3" s="2">
-        <v>0</v>
-      </c>
-      <c r="C3" s="2">
-        <v>0</v>
-      </c>
-      <c r="D3" s="2">
-        <v>0</v>
-      </c>
-      <c r="E3" s="2">
-        <v>0</v>
-      </c>
-      <c r="F3" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
+      <c r="B4" s="2">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
         <v>1934</v>
       </c>
-      <c r="B4" s="2">
-        <v>0</v>
-      </c>
-      <c r="C4" s="2">
-        <v>0</v>
-      </c>
-      <c r="D4" s="2">
-        <v>0</v>
-      </c>
-      <c r="E4" s="2">
-        <v>0</v>
-      </c>
-      <c r="F4" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
+      <c r="B5" s="2">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
         <v>1935</v>
       </c>
-      <c r="B5" s="2">
-        <v>0</v>
-      </c>
-      <c r="C5" s="2">
-        <v>0</v>
-      </c>
-      <c r="D5" s="2">
-        <v>0</v>
-      </c>
-      <c r="E5" s="2">
-        <v>0</v>
-      </c>
-      <c r="F5" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
+      <c r="B6" s="2">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
         <v>1936</v>
       </c>
-      <c r="B6" s="2">
-        <v>0</v>
-      </c>
-      <c r="C6" s="2">
-        <v>0</v>
-      </c>
-      <c r="D6" s="2">
-        <v>0</v>
-      </c>
-      <c r="E6" s="2">
-        <v>0</v>
-      </c>
-      <c r="F6" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
+      <c r="B7" s="2">
+        <v>0</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
         <v>1937</v>
       </c>
-      <c r="B7" s="2">
-        <v>0</v>
-      </c>
-      <c r="C7" s="2">
-        <v>0</v>
-      </c>
-      <c r="D7" s="2">
-        <v>0</v>
-      </c>
-      <c r="E7" s="2">
-        <v>0</v>
-      </c>
-      <c r="F7" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
+      <c r="B8" s="2">
+        <v>0</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
         <v>1938</v>
       </c>
-      <c r="B8" s="2">
-        <v>0</v>
-      </c>
-      <c r="C8" s="2">
-        <v>0</v>
-      </c>
-      <c r="D8" s="2">
-        <v>0</v>
-      </c>
-      <c r="E8" s="2">
-        <v>0</v>
-      </c>
-      <c r="F8" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
+      <c r="B9" s="2">
+        <v>0</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
         <v>1939</v>
       </c>
-      <c r="B9" s="2">
-        <v>0</v>
-      </c>
-      <c r="C9" s="2">
-        <v>0</v>
-      </c>
-      <c r="D9" s="2">
-        <v>0</v>
-      </c>
-      <c r="E9" s="2">
-        <v>0</v>
-      </c>
-      <c r="F9" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
+      <c r="B10" s="2">
+        <v>0</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
         <v>1940</v>
       </c>
-      <c r="B10" s="2">
-        <v>0</v>
-      </c>
-      <c r="C10" s="2">
-        <v>0</v>
-      </c>
-      <c r="D10" s="2">
-        <v>0</v>
-      </c>
-      <c r="E10" s="2">
-        <v>0</v>
-      </c>
-      <c r="F10" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
+      <c r="B11" s="2">
+        <v>0</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
         <v>1941</v>
       </c>
-      <c r="B11" s="2">
-        <v>0</v>
-      </c>
-      <c r="C11" s="2">
-        <v>0</v>
-      </c>
-      <c r="D11" s="2">
-        <v>0</v>
-      </c>
-      <c r="E11" s="2">
-        <v>0</v>
-      </c>
-      <c r="F11" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="2">
+      <c r="B12" s="2">
+        <v>0</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
         <v>1942</v>
       </c>
-      <c r="B12" s="2">
-        <v>0</v>
-      </c>
-      <c r="C12" s="2">
-        <v>0</v>
-      </c>
-      <c r="D12" s="2">
-        <v>0</v>
-      </c>
-      <c r="E12" s="2">
-        <v>0</v>
-      </c>
-      <c r="F12" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="2">
+      <c r="B13" s="2">
+        <v>0</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0</v>
+      </c>
+      <c r="F13" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
         <v>1943</v>
       </c>
-      <c r="B13" s="2">
-        <v>1</v>
-      </c>
-      <c r="C13" s="2">
-        <v>1</v>
-      </c>
-      <c r="D13" s="2">
-        <v>0</v>
-      </c>
-      <c r="E13" s="2">
-        <v>0</v>
-      </c>
-      <c r="F13" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="2">
+      <c r="B14" s="2">
+        <v>1</v>
+      </c>
+      <c r="C14" s="2">
+        <v>1</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0</v>
+      </c>
+      <c r="F14" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
         <v>1944</v>
       </c>
-      <c r="B14" s="2">
-        <v>0</v>
-      </c>
-      <c r="C14" s="2">
-        <v>1</v>
-      </c>
-      <c r="D14" s="2">
-        <v>0</v>
-      </c>
-      <c r="E14" s="2">
-        <v>0</v>
-      </c>
-      <c r="F14" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="2">
+      <c r="B15" s="2">
+        <v>0</v>
+      </c>
+      <c r="C15" s="2">
+        <v>1</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0</v>
+      </c>
+      <c r="E15" s="2">
+        <v>0</v>
+      </c>
+      <c r="F15" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
         <v>1945</v>
-      </c>
-      <c r="B15" s="2">
-        <v>0</v>
-      </c>
-      <c r="C15" s="2">
-        <v>1</v>
-      </c>
-      <c r="D15" s="2">
-        <v>0</v>
-      </c>
-      <c r="E15" s="2">
-        <v>0</v>
-      </c>
-      <c r="F15" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="2">
-        <v>1946</v>
       </c>
       <c r="B16" s="2">
         <v>0</v>
@@ -4685,7 +4776,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="B17" s="2">
         <v>0</v>
@@ -4705,7 +4796,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
-        <v>1948</v>
+        <v>1947</v>
       </c>
       <c r="B18" s="2">
         <v>0</v>
@@ -4725,7 +4816,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
-        <v>1949</v>
+        <v>1948</v>
       </c>
       <c r="B19" s="2">
         <v>0</v>
@@ -4745,7 +4836,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
-        <v>1950</v>
+        <v>1949</v>
       </c>
       <c r="B20" s="2">
         <v>0</v>
@@ -4765,7 +4856,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
-        <v>1951</v>
+        <v>1950</v>
       </c>
       <c r="B21" s="2">
         <v>0</v>
@@ -4785,7 +4876,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
-        <v>1952</v>
+        <v>1951</v>
       </c>
       <c r="B22" s="2">
         <v>0</v>
@@ -4805,7 +4896,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
-        <v>1953</v>
+        <v>1952</v>
       </c>
       <c r="B23" s="2">
         <v>0</v>
@@ -4825,7 +4916,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
-        <v>1954</v>
+        <v>1953</v>
       </c>
       <c r="B24" s="2">
         <v>0</v>
@@ -4845,7 +4936,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
-        <v>1955</v>
+        <v>1954</v>
       </c>
       <c r="B25" s="2">
         <v>0</v>
@@ -4865,7 +4956,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
-        <v>1956</v>
+        <v>1955</v>
       </c>
       <c r="B26" s="2">
         <v>0</v>
@@ -4885,7 +4976,7 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
-        <v>1957</v>
+        <v>1956</v>
       </c>
       <c r="B27" s="2">
         <v>0</v>
@@ -4905,7 +4996,7 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
-        <v>1958</v>
+        <v>1957</v>
       </c>
       <c r="B28" s="2">
         <v>0</v>
@@ -4925,7 +5016,7 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
-        <v>1959</v>
+        <v>1958</v>
       </c>
       <c r="B29" s="2">
         <v>0</v>
@@ -4945,7 +5036,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
-        <v>1960</v>
+        <v>1959</v>
       </c>
       <c r="B30" s="2">
         <v>0</v>
@@ -4965,7 +5056,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
-        <v>1961</v>
+        <v>1960</v>
       </c>
       <c r="B31" s="2">
         <v>0</v>
@@ -4985,7 +5076,7 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
-        <v>1962</v>
+        <v>1961</v>
       </c>
       <c r="B32" s="2">
         <v>0</v>
@@ -5005,7 +5096,7 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
-        <v>1963</v>
+        <v>1962</v>
       </c>
       <c r="B33" s="2">
         <v>0</v>
@@ -5025,7 +5116,7 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
-        <v>1964</v>
+        <v>1963</v>
       </c>
       <c r="B34" s="2">
         <v>0</v>
@@ -5045,7 +5136,7 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
-        <v>1965</v>
+        <v>1964</v>
       </c>
       <c r="B35" s="2">
         <v>0</v>
@@ -5065,7 +5156,7 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
-        <v>1966</v>
+        <v>1965</v>
       </c>
       <c r="B36" s="2">
         <v>0</v>
@@ -5085,7 +5176,7 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
-        <v>1967</v>
+        <v>1966</v>
       </c>
       <c r="B37" s="2">
         <v>0</v>
@@ -5105,13 +5196,13 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
-        <v>1968</v>
+        <v>1967</v>
       </c>
       <c r="B38" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C38" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D38" s="2">
         <v>0</v>
@@ -5120,15 +5211,15 @@
         <v>0</v>
       </c>
       <c r="F38" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
-        <v>1969</v>
+        <v>1968</v>
       </c>
       <c r="B39" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C39" s="2">
         <v>2</v>
@@ -5145,7 +5236,7 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
-        <v>1970</v>
+        <v>1969</v>
       </c>
       <c r="B40" s="2">
         <v>0</v>
@@ -5165,7 +5256,7 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
-        <v>1971</v>
+        <v>1970</v>
       </c>
       <c r="B41" s="2">
         <v>0</v>
@@ -5185,7 +5276,7 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
-        <v>1972</v>
+        <v>1971</v>
       </c>
       <c r="B42" s="2">
         <v>0</v>
@@ -5205,7 +5296,7 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
-        <v>1973</v>
+        <v>1972</v>
       </c>
       <c r="B43" s="2">
         <v>0</v>
@@ -5225,7 +5316,7 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
-        <v>1974</v>
+        <v>1973</v>
       </c>
       <c r="B44" s="2">
         <v>0</v>
@@ -5245,7 +5336,7 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
-        <v>1975</v>
+        <v>1974</v>
       </c>
       <c r="B45" s="2">
         <v>0</v>
@@ -5265,7 +5356,7 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="B46" s="2">
         <v>0</v>
@@ -5285,7 +5376,7 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
-        <v>1977</v>
+        <v>1976</v>
       </c>
       <c r="B47" s="2">
         <v>0</v>
@@ -5305,7 +5396,7 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
-        <v>1978</v>
+        <v>1977</v>
       </c>
       <c r="B48" s="2">
         <v>0</v>
@@ -5325,7 +5416,7 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
-        <v>1979</v>
+        <v>1978</v>
       </c>
       <c r="B49" s="2">
         <v>0</v>
@@ -5345,7 +5436,7 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="B50" s="2">
         <v>0</v>
@@ -5365,7 +5456,7 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="B51" s="2">
         <v>0</v>
@@ -5385,7 +5476,7 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
-        <v>1982</v>
+        <v>1981</v>
       </c>
       <c r="B52" s="2">
         <v>0</v>
@@ -5405,7 +5496,7 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
-        <v>1983</v>
+        <v>1982</v>
       </c>
       <c r="B53" s="2">
         <v>0</v>
@@ -5425,7 +5516,7 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
-        <v>1984</v>
+        <v>1983</v>
       </c>
       <c r="B54" s="2">
         <v>0</v>
@@ -5445,7 +5536,7 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="B55" s="2">
         <v>0</v>
@@ -5465,7 +5556,7 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="B56" s="2">
         <v>0</v>
@@ -5485,7 +5576,7 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
-        <v>1987</v>
+        <v>1986</v>
       </c>
       <c r="B57" s="2">
         <v>0</v>
@@ -5505,7 +5596,7 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
-        <v>1988</v>
+        <v>1987</v>
       </c>
       <c r="B58" s="2">
         <v>0</v>
@@ -5525,7 +5616,7 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="B59" s="2">
         <v>0</v>
@@ -5545,7 +5636,7 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
-        <v>1990</v>
+        <v>1989</v>
       </c>
       <c r="B60" s="2">
         <v>0</v>
@@ -5565,7 +5656,7 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="B61" s="2">
         <v>0</v>
@@ -5585,7 +5676,7 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="B62" s="2">
         <v>0</v>
@@ -5605,7 +5696,7 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="B63" s="2">
         <v>0</v>
@@ -5625,7 +5716,7 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="B64" s="2">
         <v>0</v>
@@ -5645,13 +5736,13 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="B65" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C65" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D65" s="2">
         <v>0</v>
@@ -5660,18 +5751,18 @@
         <v>0</v>
       </c>
       <c r="F65" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="B66" s="2">
         <v>1</v>
       </c>
       <c r="C66" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D66" s="2">
         <v>0</v>
@@ -5680,18 +5771,18 @@
         <v>0</v>
       </c>
       <c r="F66" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="B67" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C67" s="2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D67" s="2">
         <v>0</v>
@@ -5700,15 +5791,15 @@
         <v>0</v>
       </c>
       <c r="F67" s="2">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="B68" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C68" s="2">
         <v>7</v>
@@ -5725,7 +5816,7 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="B69" s="2">
         <v>0</v>
@@ -5745,7 +5836,7 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="B70" s="2">
         <v>0</v>
@@ -5765,7 +5856,7 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="B71" s="2">
         <v>0</v>
@@ -5785,53 +5876,53 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="B72" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C72" s="2">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D72" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E72" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F72" s="2">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="B73" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C73" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D73" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E73" s="2">
         <v>1</v>
       </c>
       <c r="F73" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="B74" s="2">
         <v>1</v>
       </c>
       <c r="C74" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D74" s="2">
         <v>0</v>
@@ -5840,32 +5931,32 @@
         <v>1</v>
       </c>
       <c r="F74" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="B75" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C75" s="2">
         <v>12</v>
       </c>
       <c r="D75" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E75" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F75" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="B76" s="2">
         <v>0</v>
@@ -5874,7 +5965,7 @@
         <v>12</v>
       </c>
       <c r="D76" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E76" s="2">
         <v>2</v>
@@ -5885,7 +5976,7 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="B77" s="2">
         <v>0</v>
@@ -5894,18 +5985,18 @@
         <v>12</v>
       </c>
       <c r="D77" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E77" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F77" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="B78" s="2">
         <v>0</v>
@@ -5914,7 +6005,7 @@
         <v>12</v>
       </c>
       <c r="D78" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E78" s="2">
         <v>3</v>
@@ -5925,7 +6016,7 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="2">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="B79" s="2">
         <v>0</v>
@@ -5945,7 +6036,7 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="B80" s="2">
         <v>0</v>
@@ -5965,53 +6056,53 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="B81" s="2">
+        <v>0</v>
+      </c>
+      <c r="C81" s="2">
+        <v>12</v>
+      </c>
+      <c r="D81" s="2">
+        <v>0</v>
+      </c>
+      <c r="E81" s="2">
         <v>3</v>
       </c>
-      <c r="C81" s="2">
-        <v>15</v>
-      </c>
-      <c r="D81" s="2">
-        <v>1</v>
-      </c>
-      <c r="E81" s="2">
-        <v>4</v>
-      </c>
       <c r="F81" s="2">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="2">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="B82" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C82" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D82" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E82" s="2">
         <v>4</v>
       </c>
       <c r="F82" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="B83" s="2">
         <v>1</v>
       </c>
       <c r="C83" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D83" s="2">
         <v>0</v>
@@ -6020,18 +6111,18 @@
         <v>4</v>
       </c>
       <c r="F83" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" s="2">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B84" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C84" s="2">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D84" s="2">
         <v>0</v>
@@ -6040,15 +6131,15 @@
         <v>4</v>
       </c>
       <c r="F84" s="2">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="2">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="B85" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C85" s="2">
         <v>19</v>
@@ -6065,19 +6156,19 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" s="2">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="B86" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C86" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D86" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E86" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F86" s="2">
         <v>15</v>
@@ -6085,16 +6176,16 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="2">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="B87" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C87" s="2">
         <v>20</v>
       </c>
       <c r="D87" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E87" s="2">
         <v>5</v>
@@ -6105,13 +6196,13 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" s="2">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="B88" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C88" s="2">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D88" s="2">
         <v>0</v>
@@ -6120,32 +6211,32 @@
         <v>5</v>
       </c>
       <c r="F88" s="2">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" s="2">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="B89" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C89" s="2">
         <v>22</v>
       </c>
       <c r="D89" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E89" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F89" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" s="2">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="B90" s="2">
         <v>0</v>
@@ -6154,7 +6245,7 @@
         <v>22</v>
       </c>
       <c r="D90" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E90" s="2">
         <v>6</v>
@@ -6164,24 +6255,47 @@
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A91" s="2" t="s">
-        <v>1</v>
+      <c r="A91" s="2">
+        <v>2020</v>
       </c>
       <c r="B91" s="2">
+        <v>0</v>
+      </c>
+      <c r="C91" s="2">
         <v>22</v>
       </c>
+      <c r="D91" s="2">
+        <v>0</v>
+      </c>
+      <c r="E91" s="2">
+        <v>6</v>
+      </c>
+      <c r="F91" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A92" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B92" s="2">
+        <v>22</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FFF34CB-73DC-4129-9F6D-DE807AC112EE}">
-  <dimension ref="A1:E91"/>
+  <dimension ref="A1:F92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6191,264 +6305,259 @@
     <col min="3" max="5" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C2" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D2" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E2" s="10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
         <v>1932</v>
       </c>
-      <c r="B2" s="2">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2">
-        <v>0</v>
-      </c>
-      <c r="D2" s="2">
-        <v>0</v>
-      </c>
-      <c r="E2" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
+      <c r="B3" s="2">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
         <v>1933</v>
       </c>
-      <c r="B3" s="2">
-        <v>0</v>
-      </c>
-      <c r="C3" s="2">
-        <v>0</v>
-      </c>
-      <c r="D3" s="2">
-        <v>0</v>
-      </c>
-      <c r="E3" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
+      <c r="B4" s="2">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
         <v>1934</v>
       </c>
-      <c r="B4" s="2">
-        <v>0</v>
-      </c>
-      <c r="C4" s="2">
-        <v>0</v>
-      </c>
-      <c r="D4" s="2">
-        <v>0</v>
-      </c>
-      <c r="E4" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
+      <c r="B5" s="2">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
         <v>1935</v>
       </c>
-      <c r="B5" s="2">
-        <v>0</v>
-      </c>
-      <c r="C5" s="2">
-        <v>0</v>
-      </c>
-      <c r="D5" s="2">
-        <v>0</v>
-      </c>
-      <c r="E5" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
+      <c r="B6" s="2">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
         <v>1936</v>
       </c>
-      <c r="B6" s="2">
-        <v>0</v>
-      </c>
-      <c r="C6" s="2">
-        <v>0</v>
-      </c>
-      <c r="D6" s="2">
-        <v>0</v>
-      </c>
-      <c r="E6" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
+      <c r="B7" s="2">
+        <v>0</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
         <v>1937</v>
       </c>
-      <c r="B7" s="2">
-        <v>0</v>
-      </c>
-      <c r="C7" s="2">
-        <v>0</v>
-      </c>
-      <c r="D7" s="2">
-        <v>0</v>
-      </c>
-      <c r="E7" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
+      <c r="B8" s="2">
+        <v>0</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
         <v>1938</v>
       </c>
-      <c r="B8" s="2">
-        <v>0</v>
-      </c>
-      <c r="C8" s="2">
-        <v>0</v>
-      </c>
-      <c r="D8" s="2">
-        <v>0</v>
-      </c>
-      <c r="E8" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
+      <c r="B9" s="2">
+        <v>0</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
         <v>1939</v>
       </c>
-      <c r="B9" s="2">
-        <v>0</v>
-      </c>
-      <c r="C9" s="2">
-        <v>0</v>
-      </c>
-      <c r="D9" s="2">
-        <v>0</v>
-      </c>
-      <c r="E9" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
+      <c r="B10" s="2">
+        <v>0</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
         <v>1940</v>
       </c>
-      <c r="B10" s="2">
-        <v>0</v>
-      </c>
-      <c r="C10" s="2">
-        <v>0</v>
-      </c>
-      <c r="D10" s="2">
-        <v>0</v>
-      </c>
-      <c r="E10" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
+      <c r="B11" s="2">
+        <v>0</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
         <v>1941</v>
       </c>
-      <c r="B11" s="2">
-        <v>0</v>
-      </c>
-      <c r="C11" s="2">
-        <v>0</v>
-      </c>
-      <c r="D11" s="2">
-        <v>0</v>
-      </c>
-      <c r="E11" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="2">
+      <c r="B12" s="2">
+        <v>0</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
         <v>1942</v>
       </c>
-      <c r="B12" s="2">
-        <v>0</v>
-      </c>
-      <c r="C12" s="2">
-        <v>0</v>
-      </c>
-      <c r="D12" s="2">
-        <v>0</v>
-      </c>
-      <c r="E12" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="2">
+      <c r="B13" s="2">
+        <v>0</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
         <v>1943</v>
       </c>
-      <c r="B13" s="2">
-        <v>0</v>
-      </c>
-      <c r="C13" s="2">
-        <v>1</v>
-      </c>
-      <c r="D13" s="2">
-        <v>0</v>
-      </c>
-      <c r="E13" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="2">
+      <c r="B14" s="2">
+        <v>0</v>
+      </c>
+      <c r="C14" s="2">
+        <v>1</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0</v>
+      </c>
+      <c r="E14" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
         <v>1944</v>
       </c>
-      <c r="B14" s="2">
-        <v>0</v>
-      </c>
-      <c r="C14" s="2">
-        <v>0</v>
-      </c>
-      <c r="D14" s="2">
-        <v>0</v>
-      </c>
-      <c r="E14" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="2">
+      <c r="B15" s="2">
+        <v>0</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0</v>
+      </c>
+      <c r="E15" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
         <v>1945</v>
-      </c>
-      <c r="B15" s="2">
-        <v>0</v>
-      </c>
-      <c r="C15" s="2">
-        <v>0</v>
-      </c>
-      <c r="D15" s="2">
-        <v>0</v>
-      </c>
-      <c r="E15" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="2">
-        <v>1946</v>
       </c>
       <c r="B16" s="2">
         <v>0</v>
@@ -6465,7 +6574,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="B17" s="2">
         <v>0</v>
@@ -6482,7 +6591,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
-        <v>1948</v>
+        <v>1947</v>
       </c>
       <c r="B18" s="2">
         <v>0</v>
@@ -6499,7 +6608,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
-        <v>1949</v>
+        <v>1948</v>
       </c>
       <c r="B19" s="2">
         <v>0</v>
@@ -6516,7 +6625,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
-        <v>1950</v>
+        <v>1949</v>
       </c>
       <c r="B20" s="2">
         <v>0</v>
@@ -6533,7 +6642,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
-        <v>1951</v>
+        <v>1950</v>
       </c>
       <c r="B21" s="2">
         <v>0</v>
@@ -6550,7 +6659,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
-        <v>1952</v>
+        <v>1951</v>
       </c>
       <c r="B22" s="2">
         <v>0</v>
@@ -6567,7 +6676,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
-        <v>1953</v>
+        <v>1952</v>
       </c>
       <c r="B23" s="2">
         <v>0</v>
@@ -6584,7 +6693,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
-        <v>1954</v>
+        <v>1953</v>
       </c>
       <c r="B24" s="2">
         <v>0</v>
@@ -6601,7 +6710,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
-        <v>1955</v>
+        <v>1954</v>
       </c>
       <c r="B25" s="2">
         <v>0</v>
@@ -6618,7 +6727,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
-        <v>1956</v>
+        <v>1955</v>
       </c>
       <c r="B26" s="2">
         <v>0</v>
@@ -6635,7 +6744,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
-        <v>1957</v>
+        <v>1956</v>
       </c>
       <c r="B27" s="2">
         <v>0</v>
@@ -6652,7 +6761,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
-        <v>1958</v>
+        <v>1957</v>
       </c>
       <c r="B28" s="2">
         <v>0</v>
@@ -6669,7 +6778,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
-        <v>1959</v>
+        <v>1958</v>
       </c>
       <c r="B29" s="2">
         <v>0</v>
@@ -6686,7 +6795,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
-        <v>1960</v>
+        <v>1959</v>
       </c>
       <c r="B30" s="2">
         <v>0</v>
@@ -6703,7 +6812,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
-        <v>1961</v>
+        <v>1960</v>
       </c>
       <c r="B31" s="2">
         <v>0</v>
@@ -6720,7 +6829,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
-        <v>1962</v>
+        <v>1961</v>
       </c>
       <c r="B32" s="2">
         <v>0</v>
@@ -6737,7 +6846,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
-        <v>1963</v>
+        <v>1962</v>
       </c>
       <c r="B33" s="2">
         <v>0</v>
@@ -6754,7 +6863,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
-        <v>1964</v>
+        <v>1963</v>
       </c>
       <c r="B34" s="2">
         <v>0</v>
@@ -6771,7 +6880,7 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
-        <v>1965</v>
+        <v>1964</v>
       </c>
       <c r="B35" s="2">
         <v>0</v>
@@ -6788,7 +6897,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
-        <v>1966</v>
+        <v>1965</v>
       </c>
       <c r="B36" s="2">
         <v>0</v>
@@ -6805,7 +6914,7 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
-        <v>1967</v>
+        <v>1966</v>
       </c>
       <c r="B37" s="2">
         <v>0</v>
@@ -6822,30 +6931,30 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
-        <v>1968</v>
+        <v>1967</v>
       </c>
       <c r="B38" s="2">
         <v>0</v>
       </c>
       <c r="C38" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D38" s="2">
         <v>0</v>
       </c>
       <c r="E38" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
-        <v>1969</v>
+        <v>1968</v>
       </c>
       <c r="B39" s="2">
         <v>0</v>
       </c>
       <c r="C39" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D39" s="2">
         <v>0</v>
@@ -6856,7 +6965,7 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
-        <v>1970</v>
+        <v>1969</v>
       </c>
       <c r="B40" s="2">
         <v>0</v>
@@ -6873,7 +6982,7 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
-        <v>1971</v>
+        <v>1970</v>
       </c>
       <c r="B41" s="2">
         <v>0</v>
@@ -6890,7 +6999,7 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
-        <v>1972</v>
+        <v>1971</v>
       </c>
       <c r="B42" s="2">
         <v>0</v>
@@ -6907,7 +7016,7 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
-        <v>1973</v>
+        <v>1972</v>
       </c>
       <c r="B43" s="2">
         <v>0</v>
@@ -6924,7 +7033,7 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
-        <v>1974</v>
+        <v>1973</v>
       </c>
       <c r="B44" s="2">
         <v>0</v>
@@ -6941,7 +7050,7 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
-        <v>1975</v>
+        <v>1974</v>
       </c>
       <c r="B45" s="2">
         <v>0</v>
@@ -6958,7 +7067,7 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="B46" s="2">
         <v>0</v>
@@ -6975,7 +7084,7 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
-        <v>1977</v>
+        <v>1976</v>
       </c>
       <c r="B47" s="2">
         <v>0</v>
@@ -6992,7 +7101,7 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
-        <v>1978</v>
+        <v>1977</v>
       </c>
       <c r="B48" s="2">
         <v>0</v>
@@ -7009,7 +7118,7 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
-        <v>1979</v>
+        <v>1978</v>
       </c>
       <c r="B49" s="2">
         <v>0</v>
@@ -7026,7 +7135,7 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="B50" s="2">
         <v>0</v>
@@ -7043,7 +7152,7 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="B51" s="2">
         <v>0</v>
@@ -7060,7 +7169,7 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
-        <v>1982</v>
+        <v>1981</v>
       </c>
       <c r="B52" s="2">
         <v>0</v>
@@ -7077,7 +7186,7 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
-        <v>1983</v>
+        <v>1982</v>
       </c>
       <c r="B53" s="2">
         <v>0</v>
@@ -7094,7 +7203,7 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
-        <v>1984</v>
+        <v>1983</v>
       </c>
       <c r="B54" s="2">
         <v>0</v>
@@ -7111,7 +7220,7 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="B55" s="2">
         <v>0</v>
@@ -7128,7 +7237,7 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="B56" s="2">
         <v>0</v>
@@ -7145,7 +7254,7 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
-        <v>1987</v>
+        <v>1986</v>
       </c>
       <c r="B57" s="2">
         <v>0</v>
@@ -7162,7 +7271,7 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
-        <v>1988</v>
+        <v>1987</v>
       </c>
       <c r="B58" s="2">
         <v>0</v>
@@ -7179,33 +7288,33 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
+        <v>1988</v>
+      </c>
+      <c r="B59" s="2">
+        <v>0</v>
+      </c>
+      <c r="C59" s="2">
+        <v>0</v>
+      </c>
+      <c r="D59" s="2">
+        <v>0</v>
+      </c>
+      <c r="E59" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60" s="2">
         <v>1989</v>
       </c>
-      <c r="B59" s="2">
-        <v>0</v>
-      </c>
-      <c r="C59" s="2">
-        <v>0</v>
-      </c>
-      <c r="D59" s="2">
-        <v>0</v>
-      </c>
-      <c r="E59" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A60" s="1">
-        <v>1990</v>
-      </c>
-      <c r="B60" s="1">
-        <v>1</v>
+      <c r="B60" s="2">
+        <v>0</v>
       </c>
       <c r="C60" s="2">
         <v>0</v>
       </c>
-      <c r="D60" s="1">
-        <v>1</v>
+      <c r="D60" s="2">
+        <v>0</v>
       </c>
       <c r="E60" s="2">
         <v>2</v>
@@ -7213,7 +7322,7 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="B61" s="1">
         <v>1</v>
@@ -7222,7 +7331,7 @@
         <v>0</v>
       </c>
       <c r="D61" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E61" s="2">
         <v>2</v>
@@ -7230,10 +7339,10 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="B62" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C62" s="2">
         <v>0</v>
@@ -7247,7 +7356,7 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="B63" s="1">
         <v>0</v>
@@ -7264,7 +7373,7 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="B64" s="1">
         <v>0</v>
@@ -7281,67 +7390,67 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="B65" s="1">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="C65" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D65" s="1">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="E65" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="B66" s="1">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C66" s="2">
         <v>1</v>
       </c>
       <c r="D66" s="1">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="E66" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="B67" s="1">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C67" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D67" s="1">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="E67" s="2">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="B68" s="1">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C68" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D68" s="1">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="E68" s="2">
         <v>7</v>
@@ -7349,16 +7458,16 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="B69" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" s="2">
         <v>0</v>
       </c>
       <c r="D69" s="1">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E69" s="2">
         <v>7</v>
@@ -7366,16 +7475,16 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="B70" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C70" s="2">
         <v>0</v>
       </c>
       <c r="D70" s="1">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="E70" s="2">
         <v>7</v>
@@ -7383,16 +7492,16 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="B71" s="1">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C71" s="2">
         <v>0</v>
       </c>
       <c r="D71" s="1">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E71" s="2">
         <v>7</v>
@@ -7400,84 +7509,84 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="B72" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C72" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D72" s="1">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E72" s="2">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="B73" s="1">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C73" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D73" s="1">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="E73" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="B74" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C74" s="2">
         <v>1</v>
       </c>
       <c r="D74" s="1">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="E74" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="B75" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C75" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D75" s="1">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="E75" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="B76" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C76" s="2">
         <v>0</v>
       </c>
       <c r="D76" s="1">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E76" s="2">
         <v>10</v>
@@ -7485,33 +7594,33 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="B77" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C77" s="2">
         <v>0</v>
       </c>
       <c r="D77" s="1">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E77" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="B78" s="1">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C78" s="2">
         <v>0</v>
       </c>
       <c r="D78" s="1">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="E78" s="2">
         <v>9</v>
@@ -7519,16 +7628,16 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="B79" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C79" s="2">
         <v>0</v>
       </c>
       <c r="D79" s="1">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="E79" s="2">
         <v>9</v>
@@ -7536,10 +7645,10 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="B80" s="1">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C80" s="2">
         <v>0</v>
@@ -7553,84 +7662,84 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="B81" s="1">
+        <v>3</v>
+      </c>
+      <c r="C81" s="2">
+        <v>0</v>
+      </c>
+      <c r="D81" s="1">
+        <v>115</v>
+      </c>
+      <c r="E81" s="2">
         <v>9</v>
-      </c>
-      <c r="C81" s="2">
-        <v>3</v>
-      </c>
-      <c r="D81" s="1">
-        <v>123</v>
-      </c>
-      <c r="E81" s="2">
-        <v>11</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="B82" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C82" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D82" s="1">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="E82" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="B83" s="1">
+        <v>7</v>
+      </c>
+      <c r="C83" s="2">
+        <v>1</v>
+      </c>
+      <c r="D83" s="1">
+        <v>128</v>
+      </c>
+      <c r="E83" s="2">
         <v>12</v>
-      </c>
-      <c r="C83" s="2">
-        <v>1</v>
-      </c>
-      <c r="D83" s="1">
-        <v>138</v>
-      </c>
-      <c r="E83" s="2">
-        <v>13</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B84" s="1">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C84" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D84" s="1">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E84" s="2">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="B85" s="1">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C85" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D85" s="1">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="E85" s="2">
         <v>15</v>
@@ -7638,16 +7747,16 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="B86" s="1">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C86" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D86" s="1">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E86" s="2">
         <v>15</v>
@@ -7655,16 +7764,16 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="B87" s="1">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C87" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D87" s="1">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="E87" s="2">
         <v>15</v>
@@ -7672,44 +7781,44 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="B88" s="1">
+        <v>9</v>
+      </c>
+      <c r="C88" s="2">
+        <v>0</v>
+      </c>
+      <c r="D88" s="1">
+        <v>165</v>
+      </c>
+      <c r="E88" s="2">
         <v>15</v>
-      </c>
-      <c r="C88" s="2">
-        <v>2</v>
-      </c>
-      <c r="D88" s="1">
-        <v>178</v>
-      </c>
-      <c r="E88" s="2">
-        <v>17</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="B89" s="1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C89" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D89" s="1">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="E89" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="B90" s="1">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C90" s="2">
         <v>0</v>
@@ -7722,17 +7831,37 @@
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A91" s="1" t="s">
-        <v>1</v>
+      <c r="A91" s="1">
+        <v>2020</v>
       </c>
       <c r="B91" s="1">
+        <v>3</v>
+      </c>
+      <c r="C91" s="2">
+        <v>0</v>
+      </c>
+      <c r="D91" s="1">
+        <v>184</v>
+      </c>
+      <c r="E91" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A92" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B92" s="1">
         <v>224</v>
       </c>
-      <c r="C91" s="2">
+      <c r="C92" s="2">
         <v>22</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>

--- a/Feds y Confeds. sector público.xlsx
+++ b/Feds y Confeds. sector público.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sebao\Documents\GitHub\Federaciones-y-Confederaciones-sindicales--1930-2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50089C67-BE37-4430-849B-9D4E8345182D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3014AC5-E1ED-447B-ACCB-F440EC960552}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Leeme" sheetId="7" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="32">
   <si>
     <t>Año</t>
   </si>
@@ -272,11 +272,11 @@
     </r>
   </si>
   <si>
-    <t>Federaciones sindicales creadas, en receso y vigentes, 1932-2021</t>
+    <t>Federaciones de asociaciones creadas, en receso y vigentes, 1932-2021</t>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Osorio, Sebastián (2021): "Federaciones sindicales creadas, en receso y vigentes, 1932-2021". En </t>
+      <t xml:space="preserve">Osorio, Sebastián (2021): "Federaciones de asociaciones creadas, en receso y vigentes, 1932-2021". En </t>
     </r>
     <r>
       <rPr>
@@ -303,11 +303,11 @@
     </r>
   </si>
   <si>
-    <t>Confederaciones sindicales creadas, en receso y vigentes, 1932-2021</t>
+    <t>Confederaciones de asociaciones creadas, en receso y vigentes, 1932-2021</t>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Osorio, Sebastián (2021): "Confederaciones sindicales creadas, en receso y vigentes, 1932-2021". En </t>
+      <t xml:space="preserve">Osorio, Sebastián (2021): "Confederaciones de asociaciones creadas, en receso y vigentes, 1932-2021". En </t>
     </r>
     <r>
       <rPr>
@@ -334,7 +334,35 @@
     </r>
   </si>
   <si>
-    <t>Federaciones y confederaciones sindicales creadas y vigentes, 1932-2021</t>
+    <t>Federaciones y confederaciones de asociaciones creadas y vigentes, 1932-2021</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Osorio, Sebastián (2021): "Federaciones y confederaciones de asociaciones creadas y vigentes, 1932-2021". En </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Repositorio de Estadísticas Sindicales, 1900-2020</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. CIPSTRA, GETSUR y VV.AA. Disponible en: https://repositoriosindical.netlify.app/ </t>
+    </r>
   </si>
 </sst>
 </file>
@@ -426,12 +454,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2510,7 +2538,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43AA9F49-4F7B-4F03-81DF-1F0B4E8681F6}">
   <dimension ref="A1:A20"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
@@ -2604,7 +2632,7 @@
   <dimension ref="A1:G92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2614,35 +2642,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="9" t="s">
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="8" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="10" t="s">
+      <c r="A2" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="9" t="s">
         <v>19</v>
       </c>
     </row>
@@ -4451,8 +4479,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDCC3C7D-90AD-4C20-A21D-B8D06CC2B997}">
   <dimension ref="A1:G92"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4462,35 +4490,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="9" t="s">
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="8" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="10" t="s">
+      <c r="A2" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="9" t="s">
         <v>20</v>
       </c>
     </row>
@@ -6295,7 +6323,7 @@
   <dimension ref="A1:F92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6306,31 +6334,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="9" t="s">
-        <v>29</v>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="8" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="10" t="s">
+      <c r="A2" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="9" t="s">
         <v>20</v>
       </c>
     </row>

--- a/Feds y Confeds. sector público.xlsx
+++ b/Feds y Confeds. sector público.xlsx
@@ -1,23 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sebao\Documents\GitHub\Federaciones-y-Confederaciones-sindicales--1930-2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3014AC5-E1ED-447B-ACCB-F440EC960552}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9516CEDA-E57E-4E74-8DC1-D3A9742DC14D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Leeme" sheetId="7" r:id="rId1"/>
     <sheet name="Federaciones As." sheetId="3" r:id="rId2"/>
     <sheet name="Confederaciones As." sheetId="4" r:id="rId3"/>
     <sheet name="Totales sector público" sheetId="6" r:id="rId4"/>
+    <sheet name="Gráficos" sheetId="8" r:id="rId5"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId6"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1676,6 +1680,1582 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'[1]Sector público'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Federaciones creadas</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'[1]Sector público'!$A$58:$A$90</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>1988</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1989</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1991</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2020</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'[1]Sector público'!$B$58:$B$90</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1638-4D7F-A090-93EDCF65CC5E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'[1]Sector público'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Confederaciones creadas</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'[1]Sector público'!$A$58:$A$90</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>1988</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1989</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1991</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2020</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'[1]Sector público'!$C$58:$C$90</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1638-4D7F-A090-93EDCF65CC5E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="522899984"/>
+        <c:axId val="522900624"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="522899984"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="522900624"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="522900624"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Feds. y Confeds. creadas</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="522899984"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'[1]Sector público'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Confederaciones vigentes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln w="12700">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'[1]Sector público'!$A$58:$A$90</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>1988</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1989</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1991</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2020</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'[1]Sector público'!$E$58:$E$90</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-886E-443D-8DAB-55D679FE3838}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'[1]Sector público'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Federaciones vigentes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'[1]Sector público'!$A$58:$A$90</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>1988</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1989</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1991</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2020</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'[1]Sector público'!$D$58:$D$90</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>157</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>178</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>184</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>184</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-886E-443D-8DAB-55D679FE3838}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="-50"/>
+        <c:axId val="522899984"/>
+        <c:axId val="522900624"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="522899984"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="522900624"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="522900624"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Feds. y Confeds. Vigentes</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="522899984"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1716,7 +3296,1119 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="322">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="322">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="322">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2273,6 +4965,689 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>251460</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="2" name="Grupo 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C4B69B7-244F-4086-B522-254D1120E3BE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="792480" y="182880"/>
+          <a:ext cx="5006340" cy="5486400"/>
+          <a:chOff x="4772025" y="361950"/>
+          <a:chExt cx="5006340" cy="5486400"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:graphicFrame macro="">
+        <xdr:nvGraphicFramePr>
+          <xdr:cNvPr id="3" name="Gráfico 2">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB855172-29EB-D817-7519-14D206A78C4E}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGraphicFramePr/>
+        </xdr:nvGraphicFramePr>
+        <xdr:xfrm>
+          <a:off x="4775835" y="361950"/>
+          <a:ext cx="4998720" cy="2739390"/>
+        </xdr:xfrm>
+        <a:graphic>
+          <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+            <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          </a:graphicData>
+        </a:graphic>
+      </xdr:graphicFrame>
+      <xdr:graphicFrame macro="">
+        <xdr:nvGraphicFramePr>
+          <xdr:cNvPr id="4" name="Gráfico 3">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0398ADA-25D5-D239-C507-9EFD30062FB8}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGraphicFramePr>
+            <a:graphicFrameLocks/>
+          </xdr:cNvGraphicFramePr>
+        </xdr:nvGraphicFramePr>
+        <xdr:xfrm>
+          <a:off x="4772025" y="3108960"/>
+          <a:ext cx="5006340" cy="2739390"/>
+        </xdr:xfrm>
+        <a:graphic>
+          <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+            <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          </a:graphicData>
+        </a:graphic>
+      </xdr:graphicFrame>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Federaciones S."/>
+      <sheetName val="Confederaciones S."/>
+      <sheetName val="Sector privado"/>
+      <sheetName val="Federaciones As."/>
+      <sheetName val="Confederaciones As."/>
+      <sheetName val="Sector público"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5">
+        <row r="1">
+          <cell r="B1" t="str">
+            <v>Federaciones creadas</v>
+          </cell>
+          <cell r="C1" t="str">
+            <v>Confederaciones creadas</v>
+          </cell>
+          <cell r="D1" t="str">
+            <v>Federaciones vigentes</v>
+          </cell>
+          <cell r="E1" t="str">
+            <v>Confederaciones vigentes</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="A58">
+            <v>1988</v>
+          </cell>
+          <cell r="B58">
+            <v>0</v>
+          </cell>
+          <cell r="C58">
+            <v>0</v>
+          </cell>
+          <cell r="D58">
+            <v>0</v>
+          </cell>
+          <cell r="E58">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="A59">
+            <v>1989</v>
+          </cell>
+          <cell r="B59">
+            <v>0</v>
+          </cell>
+          <cell r="C59">
+            <v>0</v>
+          </cell>
+          <cell r="D59">
+            <v>0</v>
+          </cell>
+          <cell r="E59">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="A60">
+            <v>1990</v>
+          </cell>
+          <cell r="B60">
+            <v>1</v>
+          </cell>
+          <cell r="C60">
+            <v>0</v>
+          </cell>
+          <cell r="D60">
+            <v>1</v>
+          </cell>
+          <cell r="E60">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="A61">
+            <v>1991</v>
+          </cell>
+          <cell r="B61">
+            <v>1</v>
+          </cell>
+          <cell r="C61">
+            <v>0</v>
+          </cell>
+          <cell r="D61">
+            <v>2</v>
+          </cell>
+          <cell r="E61">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="A62">
+            <v>1992</v>
+          </cell>
+          <cell r="B62">
+            <v>0</v>
+          </cell>
+          <cell r="C62">
+            <v>0</v>
+          </cell>
+          <cell r="D62">
+            <v>2</v>
+          </cell>
+          <cell r="E62">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="A63">
+            <v>1993</v>
+          </cell>
+          <cell r="B63">
+            <v>0</v>
+          </cell>
+          <cell r="C63">
+            <v>0</v>
+          </cell>
+          <cell r="D63">
+            <v>2</v>
+          </cell>
+          <cell r="E63">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="A64">
+            <v>1994</v>
+          </cell>
+          <cell r="B64">
+            <v>0</v>
+          </cell>
+          <cell r="C64">
+            <v>0</v>
+          </cell>
+          <cell r="D64">
+            <v>2</v>
+          </cell>
+          <cell r="E64">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="A65">
+            <v>1995</v>
+          </cell>
+          <cell r="B65">
+            <v>14</v>
+          </cell>
+          <cell r="C65">
+            <v>1</v>
+          </cell>
+          <cell r="D65">
+            <v>16</v>
+          </cell>
+          <cell r="E65">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="66">
+          <cell r="A66">
+            <v>1996</v>
+          </cell>
+          <cell r="B66">
+            <v>17</v>
+          </cell>
+          <cell r="C66">
+            <v>1</v>
+          </cell>
+          <cell r="D66">
+            <v>33</v>
+          </cell>
+          <cell r="E66">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="67">
+          <cell r="A67">
+            <v>1997</v>
+          </cell>
+          <cell r="B67">
+            <v>15</v>
+          </cell>
+          <cell r="C67">
+            <v>3</v>
+          </cell>
+          <cell r="D67">
+            <v>48</v>
+          </cell>
+          <cell r="E67">
+            <v>7</v>
+          </cell>
+        </row>
+        <row r="68">
+          <cell r="A68">
+            <v>1998</v>
+          </cell>
+          <cell r="B68">
+            <v>8</v>
+          </cell>
+          <cell r="C68">
+            <v>0</v>
+          </cell>
+          <cell r="D68">
+            <v>56</v>
+          </cell>
+          <cell r="E68">
+            <v>7</v>
+          </cell>
+        </row>
+        <row r="69">
+          <cell r="A69">
+            <v>1999</v>
+          </cell>
+          <cell r="B69">
+            <v>7</v>
+          </cell>
+          <cell r="C69">
+            <v>0</v>
+          </cell>
+          <cell r="D69">
+            <v>60</v>
+          </cell>
+          <cell r="E69">
+            <v>7</v>
+          </cell>
+        </row>
+        <row r="70">
+          <cell r="A70">
+            <v>2000</v>
+          </cell>
+          <cell r="B70">
+            <v>8</v>
+          </cell>
+          <cell r="C70">
+            <v>0</v>
+          </cell>
+          <cell r="D70">
+            <v>66</v>
+          </cell>
+          <cell r="E70">
+            <v>7</v>
+          </cell>
+        </row>
+        <row r="71">
+          <cell r="A71">
+            <v>2001</v>
+          </cell>
+          <cell r="B71">
+            <v>5</v>
+          </cell>
+          <cell r="C71">
+            <v>0</v>
+          </cell>
+          <cell r="D71">
+            <v>70</v>
+          </cell>
+          <cell r="E71">
+            <v>7</v>
+          </cell>
+        </row>
+        <row r="72">
+          <cell r="A72">
+            <v>2002</v>
+          </cell>
+          <cell r="B72">
+            <v>4</v>
+          </cell>
+          <cell r="C72">
+            <v>3</v>
+          </cell>
+          <cell r="D72">
+            <v>73</v>
+          </cell>
+          <cell r="E72">
+            <v>9</v>
+          </cell>
+        </row>
+        <row r="73">
+          <cell r="A73">
+            <v>2003</v>
+          </cell>
+          <cell r="B73">
+            <v>7</v>
+          </cell>
+          <cell r="C73">
+            <v>1</v>
+          </cell>
+          <cell r="D73">
+            <v>80</v>
+          </cell>
+          <cell r="E73">
+            <v>10</v>
+          </cell>
+        </row>
+        <row r="74">
+          <cell r="A74">
+            <v>2004</v>
+          </cell>
+          <cell r="B74">
+            <v>6</v>
+          </cell>
+          <cell r="C74">
+            <v>1</v>
+          </cell>
+          <cell r="D74">
+            <v>86</v>
+          </cell>
+          <cell r="E74">
+            <v>11</v>
+          </cell>
+        </row>
+        <row r="75">
+          <cell r="A75">
+            <v>2005</v>
+          </cell>
+          <cell r="B75">
+            <v>7</v>
+          </cell>
+          <cell r="C75">
+            <v>0</v>
+          </cell>
+          <cell r="D75">
+            <v>92</v>
+          </cell>
+          <cell r="E75">
+            <v>10</v>
+          </cell>
+        </row>
+        <row r="76">
+          <cell r="A76">
+            <v>2006</v>
+          </cell>
+          <cell r="B76">
+            <v>5</v>
+          </cell>
+          <cell r="C76">
+            <v>0</v>
+          </cell>
+          <cell r="D76">
+            <v>94</v>
+          </cell>
+          <cell r="E76">
+            <v>10</v>
+          </cell>
+        </row>
+        <row r="77">
+          <cell r="A77">
+            <v>2007</v>
+          </cell>
+          <cell r="B77">
+            <v>4</v>
+          </cell>
+          <cell r="C77">
+            <v>0</v>
+          </cell>
+          <cell r="D77">
+            <v>97</v>
+          </cell>
+          <cell r="E77">
+            <v>9</v>
+          </cell>
+        </row>
+        <row r="78">
+          <cell r="A78">
+            <v>2008</v>
+          </cell>
+          <cell r="B78">
+            <v>9</v>
+          </cell>
+          <cell r="C78">
+            <v>0</v>
+          </cell>
+          <cell r="D78">
+            <v>106</v>
+          </cell>
+          <cell r="E78">
+            <v>9</v>
+          </cell>
+        </row>
+        <row r="79">
+          <cell r="A79">
+            <v>2009</v>
+          </cell>
+          <cell r="B79">
+            <v>10</v>
+          </cell>
+          <cell r="C79">
+            <v>0</v>
+          </cell>
+          <cell r="D79">
+            <v>115</v>
+          </cell>
+          <cell r="E79">
+            <v>9</v>
+          </cell>
+        </row>
+        <row r="80">
+          <cell r="A80">
+            <v>2010</v>
+          </cell>
+          <cell r="B80">
+            <v>3</v>
+          </cell>
+          <cell r="C80">
+            <v>0</v>
+          </cell>
+          <cell r="D80">
+            <v>115</v>
+          </cell>
+          <cell r="E80">
+            <v>9</v>
+          </cell>
+        </row>
+        <row r="81">
+          <cell r="A81">
+            <v>2011</v>
+          </cell>
+          <cell r="B81">
+            <v>9</v>
+          </cell>
+          <cell r="C81">
+            <v>3</v>
+          </cell>
+          <cell r="D81">
+            <v>123</v>
+          </cell>
+          <cell r="E81">
+            <v>11</v>
+          </cell>
+        </row>
+        <row r="82">
+          <cell r="A82">
+            <v>2012</v>
+          </cell>
+          <cell r="B82">
+            <v>7</v>
+          </cell>
+          <cell r="C82">
+            <v>1</v>
+          </cell>
+          <cell r="D82">
+            <v>128</v>
+          </cell>
+          <cell r="E82">
+            <v>12</v>
+          </cell>
+        </row>
+        <row r="83">
+          <cell r="A83">
+            <v>2013</v>
+          </cell>
+          <cell r="B83">
+            <v>12</v>
+          </cell>
+          <cell r="C83">
+            <v>1</v>
+          </cell>
+          <cell r="D83">
+            <v>138</v>
+          </cell>
+          <cell r="E83">
+            <v>13</v>
+          </cell>
+        </row>
+        <row r="84">
+          <cell r="A84">
+            <v>2014</v>
+          </cell>
+          <cell r="B84">
+            <v>7</v>
+          </cell>
+          <cell r="C84">
+            <v>2</v>
+          </cell>
+          <cell r="D84">
+            <v>143</v>
+          </cell>
+          <cell r="E84">
+            <v>15</v>
+          </cell>
+        </row>
+        <row r="85">
+          <cell r="A85">
+            <v>2015</v>
+          </cell>
+          <cell r="B85">
+            <v>14</v>
+          </cell>
+          <cell r="C85">
+            <v>0</v>
+          </cell>
+          <cell r="D85">
+            <v>154</v>
+          </cell>
+          <cell r="E85">
+            <v>15</v>
+          </cell>
+        </row>
+        <row r="86">
+          <cell r="A86">
+            <v>2016</v>
+          </cell>
+          <cell r="B86">
+            <v>6</v>
+          </cell>
+          <cell r="C86">
+            <v>1</v>
+          </cell>
+          <cell r="D86">
+            <v>157</v>
+          </cell>
+          <cell r="E86">
+            <v>15</v>
+          </cell>
+        </row>
+        <row r="87">
+          <cell r="A87">
+            <v>2017</v>
+          </cell>
+          <cell r="B87">
+            <v>9</v>
+          </cell>
+          <cell r="C87">
+            <v>0</v>
+          </cell>
+          <cell r="D87">
+            <v>165</v>
+          </cell>
+          <cell r="E87">
+            <v>15</v>
+          </cell>
+        </row>
+        <row r="88">
+          <cell r="A88">
+            <v>2018</v>
+          </cell>
+          <cell r="B88">
+            <v>15</v>
+          </cell>
+          <cell r="C88">
+            <v>2</v>
+          </cell>
+          <cell r="D88">
+            <v>178</v>
+          </cell>
+          <cell r="E88">
+            <v>17</v>
+          </cell>
+        </row>
+        <row r="89">
+          <cell r="A89">
+            <v>2019</v>
+          </cell>
+          <cell r="B89">
+            <v>10</v>
+          </cell>
+          <cell r="C89">
+            <v>0</v>
+          </cell>
+          <cell r="D89">
+            <v>184</v>
+          </cell>
+          <cell r="E89">
+            <v>16</v>
+          </cell>
+        </row>
+        <row r="90">
+          <cell r="A90">
+            <v>2020</v>
+          </cell>
+          <cell r="B90">
+            <v>3</v>
+          </cell>
+          <cell r="C90">
+            <v>0</v>
+          </cell>
+          <cell r="D90">
+            <v>184</v>
+          </cell>
+          <cell r="E90">
+            <v>16</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2538,7 +5913,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43AA9F49-4F7B-4F03-81DF-1F0B4E8681F6}">
   <dimension ref="A1:A20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
@@ -6322,7 +9697,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FFF34CB-73DC-4129-9F6D-DE807AC112EE}">
   <dimension ref="A1:F92"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
@@ -7894,4 +11269,19 @@
   <pageSetup orientation="portrait" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{351AB90E-F8A8-4178-AB40-82B01743019F}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>